--- a/Code/Results/Cases/Case_1_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.69431680077041</v>
+        <v>16.36711817794491</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.685953779725834</v>
+        <v>6.198157109497284</v>
       </c>
       <c r="E2">
-        <v>12.90178208463615</v>
+        <v>18.66654321818146</v>
       </c>
       <c r="F2">
-        <v>28.36039217036434</v>
+        <v>32.21748607642428</v>
       </c>
       <c r="G2">
-        <v>40.88814598619903</v>
+        <v>42.7734385296047</v>
       </c>
       <c r="H2">
-        <v>12.78444969281816</v>
+        <v>17.52470279179087</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.76525555757549</v>
+        <v>9.418769110415182</v>
       </c>
       <c r="L2">
-        <v>5.631680615886371</v>
+        <v>8.548674888827144</v>
       </c>
       <c r="M2">
-        <v>9.918489317172011</v>
+        <v>15.26759374646476</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.18016144359627</v>
+        <v>16.30682127409546</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.709572874286781</v>
+        <v>6.196388403747609</v>
       </c>
       <c r="E3">
-        <v>12.9652435863865</v>
+        <v>18.68875650849771</v>
       </c>
       <c r="F3">
-        <v>27.47520751523606</v>
+        <v>32.08962860626016</v>
       </c>
       <c r="G3">
-        <v>39.48773763152256</v>
+        <v>42.51446890057819</v>
       </c>
       <c r="H3">
-        <v>12.62864525107525</v>
+        <v>17.53131773892376</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.0686907481697</v>
+        <v>9.081209032844825</v>
       </c>
       <c r="L3">
-        <v>5.462531946022623</v>
+        <v>8.5423535061928</v>
       </c>
       <c r="M3">
-        <v>9.680091864327476</v>
+        <v>15.26455463064141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.86075357735189</v>
+        <v>16.27314975577361</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.723835108922519</v>
+        <v>6.195186779575255</v>
       </c>
       <c r="E4">
-        <v>13.00621548480414</v>
+        <v>18.70323983631898</v>
       </c>
       <c r="F4">
-        <v>26.93968193622685</v>
+        <v>32.01848840389974</v>
       </c>
       <c r="G4">
-        <v>38.63754884794501</v>
+        <v>42.36576599999086</v>
       </c>
       <c r="H4">
-        <v>12.540200856852</v>
+        <v>17.53834962116805</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.62207185643059</v>
+        <v>8.865074799309191</v>
       </c>
       <c r="L4">
-        <v>5.359174782961334</v>
+        <v>8.539960626491414</v>
       </c>
       <c r="M4">
-        <v>9.53601784748747</v>
+        <v>15.26519370735551</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.72984806144375</v>
+        <v>16.26028189551645</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.729595251228909</v>
+        <v>6.194668129143385</v>
       </c>
       <c r="E5">
-        <v>13.02341176929886</v>
+        <v>18.70935458614172</v>
       </c>
       <c r="F5">
-        <v>26.72367790797552</v>
+        <v>31.99136855293487</v>
       </c>
       <c r="G5">
-        <v>38.29388845158235</v>
+        <v>42.30780566756822</v>
       </c>
       <c r="H5">
-        <v>12.50594212153791</v>
+        <v>17.54196171571396</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.435376440313</v>
+        <v>8.774834099524011</v>
       </c>
       <c r="L5">
-        <v>5.317235582895456</v>
+        <v>8.539361216010384</v>
       </c>
       <c r="M5">
-        <v>9.477949791896748</v>
+        <v>15.26608585141068</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7080723118017</v>
+        <v>16.25819704949371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.730548827886514</v>
+        <v>6.19458026029442</v>
       </c>
       <c r="E6">
-        <v>13.02629726828425</v>
+        <v>18.71038279189995</v>
       </c>
       <c r="F6">
-        <v>26.68795170501206</v>
+        <v>31.98697877696377</v>
       </c>
       <c r="G6">
-        <v>38.23700407909294</v>
+        <v>42.29834193572876</v>
       </c>
       <c r="H6">
-        <v>12.50036017111944</v>
+        <v>17.54260657527773</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.40409455582953</v>
+        <v>8.759721086952412</v>
       </c>
       <c r="L6">
-        <v>5.310284091313676</v>
+        <v>8.539284413745115</v>
       </c>
       <c r="M6">
-        <v>9.468348382735071</v>
+        <v>15.2662721924279</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.85899088667767</v>
+        <v>16.27297274560896</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.723912991177381</v>
+        <v>6.195179902090106</v>
       </c>
       <c r="E7">
-        <v>13.00644538147364</v>
+        <v>18.70332144033926</v>
       </c>
       <c r="F7">
-        <v>26.93675951600126</v>
+        <v>32.01811506067621</v>
       </c>
       <c r="G7">
-        <v>38.63290229108171</v>
+        <v>42.36497359121567</v>
       </c>
       <c r="H7">
-        <v>12.53973165699545</v>
+        <v>17.5383953131089</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.61957292486046</v>
+        <v>8.863866450845286</v>
       </c>
       <c r="L7">
-        <v>5.358608375479721</v>
+        <v>8.539951019681373</v>
       </c>
       <c r="M7">
-        <v>9.535232031180568</v>
+        <v>15.26520317916859</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51791413562998</v>
+        <v>16.34563914049912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.694152728892877</v>
+        <v>6.197571316868835</v>
       </c>
       <c r="E8">
-        <v>12.92324427445018</v>
+        <v>18.67402735727475</v>
       </c>
       <c r="F8">
-        <v>28.05365251460625</v>
+        <v>32.1718840452597</v>
       </c>
       <c r="G8">
-        <v>40.40349121331433</v>
+        <v>42.68203582408191</v>
       </c>
       <c r="H8">
-        <v>12.72921102901649</v>
+        <v>17.52636700247197</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.52904020036747</v>
+        <v>9.304256936902972</v>
       </c>
       <c r="L8">
-        <v>5.57328544464717</v>
+        <v>8.546187250318454</v>
       </c>
       <c r="M8">
-        <v>9.835849924563162</v>
+        <v>15.26602706840377</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77338473912845</v>
+        <v>16.5142036234835</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.633477813795324</v>
+        <v>6.201339155432288</v>
       </c>
       <c r="E9">
-        <v>12.77624205324223</v>
+        <v>18.62326359975063</v>
       </c>
       <c r="F9">
-        <v>30.29829809974218</v>
+        <v>32.53094091932436</v>
       </c>
       <c r="G9">
-        <v>43.93778012841678</v>
+        <v>43.38333450060304</v>
       </c>
       <c r="H9">
-        <v>13.15941795146932</v>
+        <v>17.52635476053406</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.16054732722449</v>
+        <v>10.09495555091429</v>
       </c>
       <c r="L9">
-        <v>5.996071066168178</v>
+        <v>8.570157104897703</v>
       </c>
       <c r="M9">
-        <v>10.44092911960334</v>
+        <v>15.28743207138861</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.66539834567932</v>
+        <v>16.65317759625137</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.586872579123204</v>
+        <v>6.203539869742071</v>
       </c>
       <c r="E10">
-        <v>12.67846803118194</v>
+        <v>18.5900169918466</v>
       </c>
       <c r="F10">
-        <v>31.97026378282434</v>
+        <v>32.82841697122566</v>
       </c>
       <c r="G10">
-        <v>46.5558792914513</v>
+        <v>43.9438003835952</v>
       </c>
       <c r="H10">
-        <v>13.51301105767188</v>
+        <v>17.54071554910849</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.26549501244116</v>
+        <v>10.62857434829057</v>
       </c>
       <c r="L10">
-        <v>6.460319894091306</v>
+        <v>8.59482074583017</v>
       </c>
       <c r="M10">
-        <v>10.89161790481566</v>
+        <v>15.31509163486459</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.06335647400386</v>
+        <v>16.71950569361325</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.565080870557246</v>
+        <v>6.204416656695607</v>
       </c>
       <c r="E11">
-        <v>12.63631219520334</v>
+        <v>18.5757665250345</v>
       </c>
       <c r="F11">
-        <v>32.73419197763791</v>
+        <v>32.97071739685269</v>
       </c>
       <c r="G11">
-        <v>47.74909363690431</v>
+        <v>44.20781706930433</v>
       </c>
       <c r="H11">
-        <v>13.68238953213385</v>
+        <v>17.55036281909575</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.74791132057325</v>
+        <v>10.8605827542563</v>
       </c>
       <c r="L11">
-        <v>6.669028097287781</v>
+        <v>8.607546023513441</v>
       </c>
       <c r="M11">
-        <v>11.09736924309122</v>
+        <v>15.33023259263548</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.21285207681542</v>
+        <v>16.74505296131385</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.556730346250696</v>
+        <v>6.204730704704466</v>
       </c>
       <c r="E12">
-        <v>12.62069324670789</v>
+        <v>18.57049549340372</v>
       </c>
       <c r="F12">
-        <v>33.02385569929759</v>
+        <v>33.02557412059851</v>
       </c>
       <c r="G12">
-        <v>48.201117654908</v>
+        <v>44.30902602549376</v>
       </c>
       <c r="H12">
-        <v>13.74778608375888</v>
+        <v>17.55446276321283</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.92770607431883</v>
+        <v>10.94686165204207</v>
       </c>
       <c r="L12">
-        <v>6.74676334077145</v>
+        <v>8.612578687818848</v>
       </c>
       <c r="M12">
-        <v>11.17534390953134</v>
+        <v>15.33633067655626</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18071002513331</v>
+        <v>16.739532037431</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.558533389107973</v>
+        <v>6.204663869623152</v>
       </c>
       <c r="E13">
-        <v>12.62404155613945</v>
+        <v>18.57162513602002</v>
       </c>
       <c r="F13">
-        <v>32.96145571577595</v>
+        <v>33.01371711359614</v>
       </c>
       <c r="G13">
-        <v>48.10375980249076</v>
+        <v>44.28717524839378</v>
       </c>
       <c r="H13">
-        <v>13.73364536724291</v>
+        <v>17.55355991945457</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.88911189644037</v>
+        <v>10.92835059756298</v>
       </c>
       <c r="L13">
-        <v>6.730079070726687</v>
+        <v>8.611485345299908</v>
       </c>
       <c r="M13">
-        <v>11.15854857717923</v>
+        <v>15.33500118907051</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.07568003934367</v>
+        <v>16.72159895777964</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.564395923271253</v>
+        <v>6.204442854331297</v>
       </c>
       <c r="E14">
-        <v>12.63502024295093</v>
+        <v>18.57533036442611</v>
       </c>
       <c r="F14">
-        <v>32.75801560322886</v>
+        <v>32.97521123304053</v>
       </c>
       <c r="G14">
-        <v>47.78627891627061</v>
+        <v>44.21611932410046</v>
       </c>
       <c r="H14">
-        <v>13.68774437859755</v>
+        <v>17.55069117830039</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.76276080005471</v>
+        <v>10.86771276474095</v>
       </c>
       <c r="L14">
-        <v>6.675449321436585</v>
+        <v>8.607955793200121</v>
       </c>
       <c r="M14">
-        <v>11.10378326803774</v>
+        <v>15.33072700021212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.01118758372958</v>
+        <v>16.71066995358421</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.567973648347714</v>
+        <v>6.204305132838455</v>
       </c>
       <c r="E15">
-        <v>12.64179021925423</v>
+        <v>18.57761623389285</v>
       </c>
       <c r="F15">
-        <v>32.63344987378284</v>
+        <v>32.95175067470318</v>
       </c>
       <c r="G15">
-        <v>47.591832951004</v>
+        <v>44.17275375540813</v>
       </c>
       <c r="H15">
-        <v>13.6597932883012</v>
+        <v>17.54899213071531</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.68499219705475</v>
+        <v>10.83036397071081</v>
       </c>
       <c r="L15">
-        <v>6.64181857349966</v>
+        <v>8.605821612249716</v>
       </c>
       <c r="M15">
-        <v>11.07024470692301</v>
+        <v>15.32815630409088</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.63922632992371</v>
+        <v>16.64890403227313</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.588283701330852</v>
+        <v>6.203480059746816</v>
       </c>
       <c r="E16">
-        <v>12.6812706143948</v>
+        <v>18.59096584553892</v>
       </c>
       <c r="F16">
-        <v>31.92039719767438</v>
+        <v>32.81925495186165</v>
       </c>
       <c r="G16">
-        <v>46.47793136821039</v>
+        <v>43.92672253616061</v>
       </c>
       <c r="H16">
-        <v>13.50211591159639</v>
+        <v>17.54014765918387</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.23356257741076</v>
+        <v>10.61319300096701</v>
       </c>
       <c r="L16">
-        <v>6.446497635432813</v>
+        <v>8.594019196127629</v>
       </c>
       <c r="M16">
-        <v>10.87818235721655</v>
+        <v>15.31415333865286</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.40897477162732</v>
+        <v>16.61179706183517</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.600582694171286</v>
+        <v>6.202941992810689</v>
       </c>
       <c r="E17">
-        <v>12.7060923836933</v>
+        <v>18.59937892373742</v>
       </c>
       <c r="F17">
-        <v>31.48373650224291</v>
+        <v>32.73973748321629</v>
       </c>
       <c r="G17">
-        <v>45.79504054890117</v>
+        <v>43.77806067958595</v>
       </c>
       <c r="H17">
-        <v>13.40759092215121</v>
+        <v>17.53551884884286</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.95145607430447</v>
+        <v>10.47719000891604</v>
       </c>
       <c r="L17">
-        <v>6.324342656258884</v>
+        <v>8.587162621467206</v>
       </c>
       <c r="M17">
-        <v>10.76051201739031</v>
+        <v>15.30621594782576</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27580711058211</v>
+        <v>16.59074771279775</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.60760202142566</v>
+        <v>6.202620813879099</v>
       </c>
       <c r="E18">
-        <v>12.72058704754159</v>
+        <v>18.60430014770555</v>
       </c>
       <c r="F18">
-        <v>31.23289932601161</v>
+        <v>32.69465993286126</v>
       </c>
       <c r="G18">
-        <v>45.40247430329617</v>
+        <v>43.6934113171376</v>
       </c>
       <c r="H18">
-        <v>13.3540233580774</v>
+        <v>17.53314971494131</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.78728949440568</v>
+        <v>10.39795569842495</v>
       </c>
       <c r="L18">
-        <v>6.253220064201464</v>
+        <v>8.583360791695403</v>
       </c>
       <c r="M18">
-        <v>10.69290214977408</v>
+        <v>15.30189160656583</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23059562142401</v>
+        <v>16.58367168766482</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.609969638701901</v>
+        <v>6.202510062150519</v>
       </c>
       <c r="E19">
-        <v>12.72553180636558</v>
+        <v>18.60598052453267</v>
       </c>
       <c r="F19">
-        <v>31.14802848672679</v>
+        <v>32.6795115615404</v>
       </c>
       <c r="G19">
-        <v>45.26960021681739</v>
+        <v>43.66489980735186</v>
       </c>
       <c r="H19">
-        <v>13.33602293350554</v>
+        <v>17.5323979597866</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.73137759715084</v>
+        <v>10.37095613410689</v>
       </c>
       <c r="L19">
-        <v>6.228990628959531</v>
+        <v>8.582098004327424</v>
       </c>
       <c r="M19">
-        <v>10.67002425771709</v>
+        <v>15.30046895543105</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43356193741304</v>
+        <v>16.6157168944553</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.599279203803057</v>
+        <v>6.203000482232817</v>
       </c>
       <c r="E20">
-        <v>12.7034274463563</v>
+        <v>18.59847482753297</v>
       </c>
       <c r="F20">
-        <v>31.53018765006706</v>
+        <v>32.74813430128678</v>
       </c>
       <c r="G20">
-        <v>45.86771445267285</v>
+        <v>43.79379779673054</v>
       </c>
       <c r="H20">
-        <v>13.41757018543372</v>
+        <v>17.53598125200475</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.9816839698409</v>
+        <v>10.4917724451227</v>
       </c>
       <c r="L20">
-        <v>6.337435394432121</v>
+        <v>8.587877848850828</v>
       </c>
       <c r="M20">
-        <v>10.77303121853957</v>
+        <v>15.30703597388113</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.1065630453</v>
+        <v>16.72685479738232</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.562676741268732</v>
+        <v>6.204508260372044</v>
       </c>
       <c r="E21">
-        <v>12.63178609275187</v>
+        <v>18.5742386505685</v>
       </c>
       <c r="F21">
-        <v>32.81776118471993</v>
+        <v>32.98649527002028</v>
       </c>
       <c r="G21">
-        <v>47.8795266954644</v>
+        <v>44.2369573252343</v>
       </c>
       <c r="H21">
-        <v>13.70119225312959</v>
+        <v>17.5515216833852</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.7999512506021</v>
+        <v>10.88556662676831</v>
       </c>
       <c r="L21">
-        <v>6.691530470348485</v>
+        <v>8.608986725606838</v>
       </c>
       <c r="M21">
-        <v>11.11986782402767</v>
+        <v>15.33197256805105</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53937722682116</v>
+        <v>16.80198949138088</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.53817375286908</v>
+        <v>6.205388883452594</v>
       </c>
       <c r="E22">
-        <v>12.58697876439059</v>
+        <v>18.55912917536648</v>
       </c>
       <c r="F22">
-        <v>33.66146322848837</v>
+        <v>33.14791916817796</v>
       </c>
       <c r="G22">
-        <v>49.19538757390966</v>
+        <v>44.53373159127383</v>
       </c>
       <c r="H22">
-        <v>13.89389627999982</v>
+        <v>17.56428141739293</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.31793533906247</v>
+        <v>11.13372588693541</v>
       </c>
       <c r="L22">
-        <v>6.915397469831777</v>
+        <v>8.624027879508368</v>
       </c>
       <c r="M22">
-        <v>11.34688648629986</v>
+        <v>15.35039308661352</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3090399017648</v>
+        <v>16.76166566253198</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.55130942346018</v>
+        <v>6.204928497543732</v>
       </c>
       <c r="E23">
-        <v>12.61070501503674</v>
+        <v>18.5671266680415</v>
       </c>
       <c r="F23">
-        <v>33.21098613879533</v>
+        <v>33.06125927942717</v>
       </c>
       <c r="G23">
-        <v>48.49302475347066</v>
+        <v>44.37470799289276</v>
       </c>
       <c r="H23">
-        <v>13.79036408541544</v>
+        <v>17.55723356706979</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.04300372195506</v>
+        <v>11.0021310175262</v>
       </c>
       <c r="L23">
-        <v>6.796599781872933</v>
+        <v>8.615887110525957</v>
       </c>
       <c r="M23">
-        <v>11.22570382807142</v>
+        <v>15.34036863878948</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.42244854357999</v>
+        <v>16.61394385240928</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.599868671287933</v>
+        <v>6.202974076005622</v>
       </c>
       <c r="E24">
-        <v>12.70463156667132</v>
+        <v>18.59888330642854</v>
       </c>
       <c r="F24">
-        <v>31.50918643995731</v>
+        <v>32.74433610964102</v>
       </c>
       <c r="G24">
-        <v>45.83485845476133</v>
+        <v>43.7866804915874</v>
       </c>
       <c r="H24">
-        <v>13.41305614534891</v>
+        <v>17.53577128973155</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.96802410648175</v>
+        <v>10.48518297621321</v>
       </c>
       <c r="L24">
-        <v>6.331518953576484</v>
+        <v>8.587554057933392</v>
       </c>
       <c r="M24">
-        <v>10.76737115850444</v>
+        <v>15.30666449547171</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43858681953422</v>
+        <v>16.46588693145116</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.650200611642495</v>
+        <v>6.200419123285435</v>
       </c>
       <c r="E25">
-        <v>12.81424482362632</v>
+        <v>18.63628369135143</v>
       </c>
       <c r="F25">
-        <v>29.68639409680789</v>
+        <v>32.42778304912393</v>
       </c>
       <c r="G25">
-        <v>42.97687160944344</v>
+        <v>43.18542128348601</v>
       </c>
       <c r="H25">
-        <v>13.03657058069003</v>
+        <v>17.52383329449234</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.73562339509277</v>
+        <v>9.889177009973226</v>
       </c>
       <c r="L25">
-        <v>5.881787259915462</v>
+        <v>8.562425678329426</v>
       </c>
       <c r="M25">
-        <v>10.27593484195133</v>
+        <v>15.27953528613736</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.36711817794491</v>
+        <v>12.69431680077045</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.198157109497284</v>
+        <v>4.685953779725969</v>
       </c>
       <c r="E2">
-        <v>18.66654321818146</v>
+        <v>12.90178208463628</v>
       </c>
       <c r="F2">
-        <v>32.21748607642428</v>
+        <v>28.36039217036433</v>
       </c>
       <c r="G2">
-        <v>42.7734385296047</v>
+        <v>40.88814598619908</v>
       </c>
       <c r="H2">
-        <v>17.52470279179087</v>
+        <v>12.78444969281816</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.418769110415182</v>
+        <v>13.7652555575755</v>
       </c>
       <c r="L2">
-        <v>8.548674888827144</v>
+        <v>5.631680615886348</v>
       </c>
       <c r="M2">
-        <v>15.26759374646476</v>
+        <v>9.918489317172046</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.30682127409546</v>
+        <v>12.18016144359623</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.196388403747609</v>
+        <v>4.70957287428658</v>
       </c>
       <c r="E3">
-        <v>18.68875650849771</v>
+        <v>12.96524358638657</v>
       </c>
       <c r="F3">
-        <v>32.08962860626016</v>
+        <v>27.47520751523592</v>
       </c>
       <c r="G3">
-        <v>42.51446890057819</v>
+        <v>39.48773763152233</v>
       </c>
       <c r="H3">
-        <v>17.53131773892376</v>
+        <v>12.62864525107511</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.081209032844825</v>
+        <v>13.06869074816974</v>
       </c>
       <c r="L3">
-        <v>8.5423535061928</v>
+        <v>5.46253194602264</v>
       </c>
       <c r="M3">
-        <v>15.26455463064141</v>
+        <v>9.680091864327482</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27314975577361</v>
+        <v>11.8607535773519</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.195186779575255</v>
+        <v>4.723835108922524</v>
       </c>
       <c r="E4">
-        <v>18.70323983631898</v>
+        <v>13.0062154848042</v>
       </c>
       <c r="F4">
-        <v>32.01848840389974</v>
+        <v>26.93968193622687</v>
       </c>
       <c r="G4">
-        <v>42.36576599999086</v>
+        <v>38.63754884794493</v>
       </c>
       <c r="H4">
-        <v>17.53834962116805</v>
+        <v>12.54020085685202</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.865074799309191</v>
+        <v>12.62207185643058</v>
       </c>
       <c r="L4">
-        <v>8.539960626491414</v>
+        <v>5.359174782961306</v>
       </c>
       <c r="M4">
-        <v>15.26519370735551</v>
+        <v>9.536017847487489</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.26028189551645</v>
+        <v>11.72984806144378</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.194668129143385</v>
+        <v>4.729595251229244</v>
       </c>
       <c r="E5">
-        <v>18.70935458614172</v>
+        <v>13.02341176929899</v>
       </c>
       <c r="F5">
-        <v>31.99136855293487</v>
+        <v>26.72367790797547</v>
       </c>
       <c r="G5">
-        <v>42.30780566756822</v>
+        <v>38.29388845158252</v>
       </c>
       <c r="H5">
-        <v>17.54196171571396</v>
+        <v>12.50594212153792</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.774834099524011</v>
+        <v>12.435376440313</v>
       </c>
       <c r="L5">
-        <v>8.539361216010384</v>
+        <v>5.317235582895488</v>
       </c>
       <c r="M5">
-        <v>15.26608585141068</v>
+        <v>9.477949791896783</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.25819704949371</v>
+        <v>11.70807231180174</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.19458026029442</v>
+        <v>4.730548827886514</v>
       </c>
       <c r="E6">
-        <v>18.71038279189995</v>
+        <v>13.02629726828445</v>
       </c>
       <c r="F6">
-        <v>31.98697877696377</v>
+        <v>26.68795170501202</v>
       </c>
       <c r="G6">
-        <v>42.29834193572876</v>
+        <v>38.23700407909285</v>
       </c>
       <c r="H6">
-        <v>17.54260657527773</v>
+        <v>12.50036017111943</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.759721086952412</v>
+        <v>12.40409455582951</v>
       </c>
       <c r="L6">
-        <v>8.539284413745115</v>
+        <v>5.310284091313699</v>
       </c>
       <c r="M6">
-        <v>15.2662721924279</v>
+        <v>9.468348382735119</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.27297274560896</v>
+        <v>11.85899088667771</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.195179902090106</v>
+        <v>4.723912991177249</v>
       </c>
       <c r="E7">
-        <v>18.70332144033926</v>
+        <v>13.00644538147384</v>
       </c>
       <c r="F7">
-        <v>32.01811506067621</v>
+        <v>26.93675951600122</v>
       </c>
       <c r="G7">
-        <v>42.36497359121567</v>
+        <v>38.63290229108156</v>
       </c>
       <c r="H7">
-        <v>17.5383953131089</v>
+        <v>12.53973165699547</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.863866450845286</v>
+        <v>12.61957292486049</v>
       </c>
       <c r="L7">
-        <v>8.539951019681373</v>
+        <v>5.358608375479798</v>
       </c>
       <c r="M7">
-        <v>15.26520317916859</v>
+        <v>9.535232031180632</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.34563914049912</v>
+        <v>12.51791413562999</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.197571316868835</v>
+        <v>4.694152728892877</v>
       </c>
       <c r="E8">
-        <v>18.67402735727475</v>
+        <v>12.92324427445018</v>
       </c>
       <c r="F8">
-        <v>32.1718840452597</v>
+        <v>28.05365251460625</v>
       </c>
       <c r="G8">
-        <v>42.68203582408191</v>
+        <v>40.4034912133144</v>
       </c>
       <c r="H8">
-        <v>17.52636700247197</v>
+        <v>12.72921102901646</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.304256936902972</v>
+        <v>13.52904020036749</v>
       </c>
       <c r="L8">
-        <v>8.546187250318454</v>
+        <v>5.573285444647195</v>
       </c>
       <c r="M8">
-        <v>15.26602706840377</v>
+        <v>9.835849924563171</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.5142036234835</v>
+        <v>13.77338473912848</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.201339155432288</v>
+        <v>4.63347781379519</v>
       </c>
       <c r="E9">
-        <v>18.62326359975063</v>
+        <v>12.77624205324216</v>
       </c>
       <c r="F9">
-        <v>32.53094091932436</v>
+        <v>30.29829809974225</v>
       </c>
       <c r="G9">
-        <v>43.38333450060304</v>
+        <v>43.93778012841686</v>
       </c>
       <c r="H9">
-        <v>17.52635476053406</v>
+        <v>13.15941795146932</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.09495555091429</v>
+        <v>15.16054732722448</v>
       </c>
       <c r="L9">
-        <v>8.570157104897703</v>
+        <v>5.996071066168128</v>
       </c>
       <c r="M9">
-        <v>15.28743207138861</v>
+        <v>10.44092911960333</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.65317759625137</v>
+        <v>14.66539834567933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.203539869742071</v>
+        <v>4.586872579123209</v>
       </c>
       <c r="E10">
-        <v>18.5900169918466</v>
+        <v>12.67846803118207</v>
       </c>
       <c r="F10">
-        <v>32.82841697122566</v>
+        <v>31.97026378282444</v>
       </c>
       <c r="G10">
-        <v>43.9438003835952</v>
+        <v>46.5558792914514</v>
       </c>
       <c r="H10">
-        <v>17.54071554910849</v>
+        <v>13.51301105767189</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.62857434829057</v>
+        <v>16.26549501244113</v>
       </c>
       <c r="L10">
-        <v>8.59482074583017</v>
+        <v>6.460319894091255</v>
       </c>
       <c r="M10">
-        <v>15.31509163486459</v>
+        <v>10.8916179048157</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.71950569361325</v>
+        <v>15.06335647400385</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.204416656695607</v>
+        <v>4.565080870557313</v>
       </c>
       <c r="E11">
-        <v>18.5757665250345</v>
+        <v>12.63631219520321</v>
       </c>
       <c r="F11">
-        <v>32.97071739685269</v>
+        <v>32.7341919776379</v>
       </c>
       <c r="G11">
-        <v>44.20781706930433</v>
+        <v>47.74909363690436</v>
       </c>
       <c r="H11">
-        <v>17.55036281909575</v>
+        <v>13.68238953213379</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.8605827542563</v>
+        <v>16.74791132057323</v>
       </c>
       <c r="L11">
-        <v>8.607546023513441</v>
+        <v>6.66902809728777</v>
       </c>
       <c r="M11">
-        <v>15.33023259263548</v>
+        <v>11.09736924309119</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.74505296131385</v>
+        <v>15.21285207681544</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.204730704704466</v>
+        <v>4.556730346251025</v>
       </c>
       <c r="E12">
-        <v>18.57049549340372</v>
+        <v>12.62069324670776</v>
       </c>
       <c r="F12">
-        <v>33.02557412059851</v>
+        <v>33.02385569929756</v>
       </c>
       <c r="G12">
-        <v>44.30902602549376</v>
+        <v>48.201117654908</v>
       </c>
       <c r="H12">
-        <v>17.55446276321283</v>
+        <v>13.74778608375887</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.94686165204207</v>
+        <v>16.92770607431877</v>
       </c>
       <c r="L12">
-        <v>8.612578687818848</v>
+        <v>6.746763340771402</v>
       </c>
       <c r="M12">
-        <v>15.33633067655626</v>
+        <v>11.17534390953134</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.739532037431</v>
+        <v>15.18071002513331</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.204663869623152</v>
+        <v>4.558533389108042</v>
       </c>
       <c r="E13">
-        <v>18.57162513602002</v>
+        <v>12.62404155613952</v>
       </c>
       <c r="F13">
-        <v>33.01371711359614</v>
+        <v>32.96145571577591</v>
       </c>
       <c r="G13">
-        <v>44.28717524839378</v>
+        <v>48.10375980249073</v>
       </c>
       <c r="H13">
-        <v>17.55355991945457</v>
+        <v>13.73364536724289</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.92835059756298</v>
+        <v>16.88911189644045</v>
       </c>
       <c r="L13">
-        <v>8.611485345299908</v>
+        <v>6.730079070726713</v>
       </c>
       <c r="M13">
-        <v>15.33500118907051</v>
+        <v>11.15854857717922</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72159895777964</v>
+        <v>15.07568003934363</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.204442854331297</v>
+        <v>4.564395923271391</v>
       </c>
       <c r="E14">
-        <v>18.57533036442611</v>
+        <v>12.63502024295094</v>
       </c>
       <c r="F14">
-        <v>32.97521123304053</v>
+        <v>32.75801560322881</v>
       </c>
       <c r="G14">
-        <v>44.21611932410046</v>
+        <v>47.78627891627054</v>
       </c>
       <c r="H14">
-        <v>17.55069117830039</v>
+        <v>13.68774437859752</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.86771276474095</v>
+        <v>16.76276080005469</v>
       </c>
       <c r="L14">
-        <v>8.607955793200121</v>
+        <v>6.67544932143655</v>
       </c>
       <c r="M14">
-        <v>15.33072700021212</v>
+        <v>11.10378326803774</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.71066995358421</v>
+        <v>15.01118758372957</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.204305132838455</v>
+        <v>4.567973648347847</v>
       </c>
       <c r="E15">
-        <v>18.57761623389285</v>
+        <v>12.64179021925417</v>
       </c>
       <c r="F15">
-        <v>32.95175067470318</v>
+        <v>32.63344987378285</v>
       </c>
       <c r="G15">
-        <v>44.17275375540813</v>
+        <v>47.59183295100397</v>
       </c>
       <c r="H15">
-        <v>17.54899213071531</v>
+        <v>13.65979328830126</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.83036397071081</v>
+        <v>16.68499219705474</v>
       </c>
       <c r="L15">
-        <v>8.605821612249716</v>
+        <v>6.641818573499707</v>
       </c>
       <c r="M15">
-        <v>15.32815630409088</v>
+        <v>11.070244706923</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.64890403227313</v>
+        <v>14.63922632992374</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.203480059746816</v>
+        <v>4.588283701330851</v>
       </c>
       <c r="E16">
-        <v>18.59096584553892</v>
+        <v>12.68127061439468</v>
       </c>
       <c r="F16">
-        <v>32.81925495186165</v>
+        <v>31.9203971976744</v>
       </c>
       <c r="G16">
-        <v>43.92672253616061</v>
+        <v>46.47793136821046</v>
       </c>
       <c r="H16">
-        <v>17.54014765918387</v>
+        <v>13.50211591159637</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.61319300096701</v>
+        <v>16.23356257741075</v>
       </c>
       <c r="L16">
-        <v>8.594019196127629</v>
+        <v>6.446497635432944</v>
       </c>
       <c r="M16">
-        <v>15.31415333865286</v>
+        <v>10.87818235721653</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61179706183517</v>
+        <v>14.40897477162732</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.202941992810689</v>
+        <v>4.600582694171147</v>
       </c>
       <c r="E17">
-        <v>18.59937892373742</v>
+        <v>12.70609238369337</v>
       </c>
       <c r="F17">
-        <v>32.73973748321629</v>
+        <v>31.48373650224296</v>
       </c>
       <c r="G17">
-        <v>43.77806067958595</v>
+        <v>45.79504054890118</v>
       </c>
       <c r="H17">
-        <v>17.53551884884286</v>
+        <v>13.40759092215122</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.47719000891604</v>
+        <v>15.9514560743045</v>
       </c>
       <c r="L17">
-        <v>8.587162621467206</v>
+        <v>6.32434265625893</v>
       </c>
       <c r="M17">
-        <v>15.30621594782576</v>
+        <v>10.76051201739029</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59074771279775</v>
+        <v>14.27580711058213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.202620813879099</v>
+        <v>4.607602021425591</v>
       </c>
       <c r="E18">
-        <v>18.60430014770555</v>
+        <v>12.7205870475416</v>
       </c>
       <c r="F18">
-        <v>32.69465993286126</v>
+        <v>31.23289932601167</v>
       </c>
       <c r="G18">
-        <v>43.6934113171376</v>
+        <v>45.40247430329624</v>
       </c>
       <c r="H18">
-        <v>17.53314971494131</v>
+        <v>13.35402335807742</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.39795569842495</v>
+        <v>15.78728949440567</v>
       </c>
       <c r="L18">
-        <v>8.583360791695403</v>
+        <v>6.253220064201461</v>
       </c>
       <c r="M18">
-        <v>15.30189160656583</v>
+        <v>10.69290214977407</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58367168766482</v>
+        <v>14.23059562142404</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.202510062150519</v>
+        <v>4.609969638701832</v>
       </c>
       <c r="E19">
-        <v>18.60598052453267</v>
+        <v>12.72553180636552</v>
       </c>
       <c r="F19">
-        <v>32.6795115615404</v>
+        <v>31.14802848672679</v>
       </c>
       <c r="G19">
-        <v>43.66489980735186</v>
+        <v>45.26960021681744</v>
       </c>
       <c r="H19">
-        <v>17.5323979597866</v>
+        <v>13.33602293350549</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.37095613410689</v>
+        <v>15.73137759715092</v>
       </c>
       <c r="L19">
-        <v>8.582098004327424</v>
+        <v>6.228990628959634</v>
       </c>
       <c r="M19">
-        <v>15.30046895543105</v>
+        <v>10.67002425771706</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.6157168944553</v>
+        <v>14.43356193741303</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.203000482232817</v>
+        <v>4.599279203802923</v>
       </c>
       <c r="E20">
-        <v>18.59847482753297</v>
+        <v>12.70342744635624</v>
       </c>
       <c r="F20">
-        <v>32.74813430128678</v>
+        <v>31.53018765006715</v>
       </c>
       <c r="G20">
-        <v>43.79379779673054</v>
+        <v>45.86771445267298</v>
       </c>
       <c r="H20">
-        <v>17.53598125200475</v>
+        <v>13.41757018543375</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.4917724451227</v>
+        <v>15.98168396984088</v>
       </c>
       <c r="L20">
-        <v>8.587877848850828</v>
+        <v>6.337435394432066</v>
       </c>
       <c r="M20">
-        <v>15.30703597388113</v>
+        <v>10.77303121853954</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.72685479738232</v>
+        <v>15.10656304530003</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.204508260372044</v>
+        <v>4.562676741268534</v>
       </c>
       <c r="E21">
-        <v>18.5742386505685</v>
+        <v>12.63178609275219</v>
       </c>
       <c r="F21">
-        <v>32.98649527002028</v>
+        <v>32.81776118471985</v>
       </c>
       <c r="G21">
-        <v>44.2369573252343</v>
+        <v>47.87952669546425</v>
       </c>
       <c r="H21">
-        <v>17.5515216833852</v>
+        <v>13.70119225312954</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.88556662676831</v>
+        <v>16.7999512506022</v>
       </c>
       <c r="L21">
-        <v>8.608986725606838</v>
+        <v>6.691530470348416</v>
       </c>
       <c r="M21">
-        <v>15.33197256805105</v>
+        <v>11.11986782402769</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.80198949138088</v>
+        <v>15.53937722682118</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.205388883452594</v>
+        <v>4.538173752869143</v>
       </c>
       <c r="E22">
-        <v>18.55912917536648</v>
+        <v>12.58697876439066</v>
       </c>
       <c r="F22">
-        <v>33.14791916817796</v>
+        <v>33.66146322848834</v>
       </c>
       <c r="G22">
-        <v>44.53373159127383</v>
+        <v>49.19538757390966</v>
       </c>
       <c r="H22">
-        <v>17.56428141739293</v>
+        <v>13.89389627999981</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.13372588693541</v>
+        <v>17.31793533906245</v>
       </c>
       <c r="L22">
-        <v>8.624027879508368</v>
+        <v>6.915397469831729</v>
       </c>
       <c r="M22">
-        <v>15.35039308661352</v>
+        <v>11.34688648629987</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76166566253198</v>
+        <v>15.30903990176474</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.204928497543732</v>
+        <v>4.551309423460045</v>
       </c>
       <c r="E23">
-        <v>18.5671266680415</v>
+        <v>12.61070501503673</v>
       </c>
       <c r="F23">
-        <v>33.06125927942717</v>
+        <v>33.21098613879535</v>
       </c>
       <c r="G23">
-        <v>44.37470799289276</v>
+        <v>48.49302475347069</v>
       </c>
       <c r="H23">
-        <v>17.55723356706979</v>
+        <v>13.79036408541543</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.0021310175262</v>
+        <v>17.04300372195505</v>
       </c>
       <c r="L23">
-        <v>8.615887110525957</v>
+        <v>6.796599781872875</v>
       </c>
       <c r="M23">
-        <v>15.34036863878948</v>
+        <v>11.22570382807142</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.61394385240928</v>
+        <v>14.42244854357998</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.202974076005622</v>
+        <v>4.599868671288201</v>
       </c>
       <c r="E24">
-        <v>18.59888330642854</v>
+        <v>12.70463156667113</v>
       </c>
       <c r="F24">
-        <v>32.74433610964102</v>
+        <v>31.50918643995726</v>
       </c>
       <c r="G24">
-        <v>43.7866804915874</v>
+        <v>45.83485845476134</v>
       </c>
       <c r="H24">
-        <v>17.53577128973155</v>
+        <v>13.41305614534887</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.48518297621321</v>
+        <v>15.96802410648183</v>
       </c>
       <c r="L24">
-        <v>8.587554057933392</v>
+        <v>6.331518953576563</v>
       </c>
       <c r="M24">
-        <v>15.30666449547171</v>
+        <v>10.76737115850436</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46588693145116</v>
+        <v>13.43858681953421</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.200419123285435</v>
+        <v>4.650200611642495</v>
       </c>
       <c r="E25">
-        <v>18.63628369135143</v>
+        <v>12.81424482362651</v>
       </c>
       <c r="F25">
-        <v>32.42778304912393</v>
+        <v>29.68639409680782</v>
       </c>
       <c r="G25">
-        <v>43.18542128348601</v>
+        <v>42.97687160944339</v>
       </c>
       <c r="H25">
-        <v>17.52383329449234</v>
+        <v>13.03657058068995</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.889177009973226</v>
+        <v>14.7356233950928</v>
       </c>
       <c r="L25">
-        <v>8.562425678329426</v>
+        <v>5.881787259915509</v>
       </c>
       <c r="M25">
-        <v>15.27953528613736</v>
+        <v>10.27593484195136</v>
       </c>
       <c r="N25">
         <v>0</v>
